--- a/Заметки о CarPrice.xlsx
+++ b/Заметки о CarPrice.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ilyag/LearningProject/CarPriceTest/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ilyag/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6280" yWindow="23620" windowWidth="25940" windowHeight="12280" tabRatio="500"/>
+    <workbookView xWindow="1060" yWindow="900" windowWidth="27240" windowHeight="14220" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="75">
   <si>
     <t>http://carprice.ru/</t>
   </si>
@@ -217,9 +217,6 @@
     <t>Главная -&gt; Значок телефонной трубку в хедере-&gt;Модальное окно: хороший тон при открытии окна сразу помещать в поле ввода фокус (замечание для правки во всех модальных окнах)</t>
   </si>
   <si>
-    <t xml:space="preserve">Главная -&gt; Значок телефонной трубку в хедере-&gt;Модальное окно: при появлении окнка - смещается вправо окно вызова чата "Отправьте нам сообщение" и по закрытию модалки, чат возвращается.   Кажется это вызвано отключением скролл бара браузера. </t>
-  </si>
-  <si>
     <t>http://prntscr.com/lx7ctl</t>
   </si>
   <si>
@@ -282,6 +279,45 @@
   </si>
   <si>
     <t>Общее пожелание - привести к единому виду дизайн интерфейсов, пример: https://guides.kontur.ru/</t>
+  </si>
+  <si>
+    <t>Приоритет</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Low - если в дальнейшем ручная обработка
+Medium - если следующий этап обработки автоматизирован (напр., B2отправка смс)</t>
+  </si>
+  <si>
+    <t>Low\Medium (нужно сверитьcя с макетами \ обсудуть с дизайнером)</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Главная -&gt; Значок телефонной трубку в хедере-&gt;Модальное окно: при появлении окна - смещается вправо окно вызова чата "Отправьте нам сообщение" и по закрытию модалки, чат возвращается.   Кажется это вызвано отключением скролл бара браузера. </t>
+  </si>
+  <si>
+    <t>https://www.carprice.market/car/ *карточка автомобиля*</t>
+  </si>
+  <si>
+    <t>http://prntscr.com/lxd0t2
+http://prntscr.com/lxczx8
+http://prntscr.com/lxd0c4
+http://prntscr.com/lxd60b</t>
+  </si>
+  <si>
+    <t>carprice.market -&gt; открыть карточку автомобиля -&gt; кликнуть изображение в строке миниатюр -&gt; листать полноформатные изображения: не загружается каждое второе (ориентировочно) полноразмерное изображение: 
+1) Сообщение для пользователя "The requested content cannot be loaded. Please try again later". 
+2) Сообщение в консоли - ошибка 403 при обращении к серверу &lt;s3265.gcdn.co&gt;
+3) Проблема проявляется только при изображениях запрашиваемых с  &lt;s3265.gcdn.c&gt;, второй сервер [s99064.gcdn.co] отдает изображения успешно.
+4) Проблема имеет переменный характер - чз время ~ 5-10 мин. ошибка пропадает на странице одного  автомобиля, но проявляется на странице другого открытого случайным образом , без к-либо алгоритма.
+Ошибка была замечена 16 дек., в настоящий момент 19-20 дек воспроизвести не удается.</t>
   </si>
 </sst>
 </file>
@@ -332,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -343,6 +379,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -620,396 +660,504 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="133" zoomScaleNormal="133" zoomScalePageLayoutView="133" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="133" zoomScaleNormal="133" zoomScalePageLayoutView="133" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="96.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.33203125" customWidth="1"/>
-    <col min="4" max="4" width="30.5" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="96.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" customWidth="1"/>
+    <col min="5" max="5" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>0</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>7</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>7</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>13</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="B11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="128" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" t="s">
         <v>16</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>20</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" t="s">
         <v>20</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>25</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>26</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>32</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" t="s">
-        <v>46</v>
+      <c r="B22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="D22" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>24</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" t="s">
         <v>37</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>25</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>37</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>26</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>27</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="B27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" t="s">
         <v>55</v>
       </c>
-      <c r="D27" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>28</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" t="s">
         <v>58</v>
       </c>
-      <c r="C28" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>29</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" t="s">
         <v>60</v>
       </c>
-      <c r="C29" t="s">
-        <v>55</v>
-      </c>
-      <c r="D29" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>30</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>65</v>
+      <c r="B30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="176" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
